--- a/data/trans_dic/P19F$tarde-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3001559092495107</v>
+        <v>0.2999898437485967</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2819017983869985</v>
+        <v>0.2848687877982305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3030757876993878</v>
+        <v>0.302696959818104</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3780028707466508</v>
+        <v>0.3758119381219562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.35451618526856</v>
+        <v>0.3561246026622732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3539826926826238</v>
+        <v>0.3536710500461586</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2766109801107924</v>
+        <v>0.2774281934551874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2618896493884824</v>
+        <v>0.2636639011794497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.278697987513593</v>
+        <v>0.2806800370271485</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3613117993763619</v>
+        <v>0.3634414141953339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3452421703818694</v>
+        <v>0.3470896975630688</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3380580531549647</v>
+        <v>0.3406168483953446</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2256560594576429</v>
+        <v>0.2236884514211784</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.301037597442806</v>
+        <v>0.3003239565571342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2718386097613376</v>
+        <v>0.2736886420927713</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3244479676236948</v>
+        <v>0.3227434851512778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4096279177446046</v>
+        <v>0.4060151364282203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.347030075468775</v>
+        <v>0.3452427198488654</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2164655933428703</v>
+        <v>0.2159173815552284</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2560068008233442</v>
+        <v>0.2538225869281494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2503951903990155</v>
+        <v>0.2558094136557676</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3287169674517105</v>
+        <v>0.3270217522808841</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3837250983875212</v>
+        <v>0.3941009228646806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3359703760028365</v>
+        <v>0.335713279743153</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2842053459933514</v>
+        <v>0.2837820312608654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2985905146341526</v>
+        <v>0.2985790027259794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2993197509170092</v>
+        <v>0.2993525433474782</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3315021123707898</v>
+        <v>0.3290008342386809</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3426415220050765</v>
+        <v>0.3448709593919722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3317045498981424</v>
+        <v>0.3301720994103126</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>191610</v>
+        <v>191504</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>195875</v>
+        <v>197937</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>404061</v>
+        <v>403556</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>241305</v>
+        <v>239906</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>246330</v>
+        <v>247447</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>471930</v>
+        <v>471515</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>136160</v>
+        <v>136562</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>128665</v>
+        <v>129536</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>274110</v>
+        <v>276059</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>177853</v>
+        <v>178901</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>169615</v>
+        <v>170523</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>332493</v>
+        <v>335009</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81637</v>
+        <v>80925</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100524</v>
+        <v>100286</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>189118</v>
+        <v>190405</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>117378</v>
+        <v>116761</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>136785</v>
+        <v>135579</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>241429</v>
+        <v>240186</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59235</v>
+        <v>59085</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56304</v>
+        <v>55823</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123590</v>
+        <v>126262</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89953</v>
+        <v>89489</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84393</v>
+        <v>86675</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>165828</v>
+        <v>165701</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>501917</v>
+        <v>501169</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>519543</v>
+        <v>519523</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1049421</v>
+        <v>1049536</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>585444</v>
+        <v>581027</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>596191</v>
+        <v>600070</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1162962</v>
+        <v>1157590</v>
       </c>
     </row>
     <row r="24">
